--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H2">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I2">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J2">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.872120333333334</v>
+        <v>4.114675333333333</v>
       </c>
       <c r="N2">
-        <v>17.616361</v>
+        <v>12.344026</v>
       </c>
       <c r="O2">
-        <v>0.07819433676692769</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="P2">
-        <v>0.07819433676692768</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="Q2">
-        <v>11.69043442805233</v>
+        <v>10.81843468445222</v>
       </c>
       <c r="R2">
-        <v>105.213909852471</v>
+        <v>97.36591216007</v>
       </c>
       <c r="S2">
-        <v>0.008780016586653469</v>
+        <v>0.006780254709026046</v>
       </c>
       <c r="T2">
-        <v>0.008780016586653467</v>
+        <v>0.006780254709026044</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H3">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I3">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J3">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.62659933333334</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N3">
         <v>178.879798</v>
       </c>
       <c r="O3">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="P3">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="Q3">
-        <v>118.7068401369753</v>
+        <v>156.7721431428456</v>
       </c>
       <c r="R3">
-        <v>1068.361561232778</v>
+        <v>1410.94928828561</v>
       </c>
       <c r="S3">
-        <v>0.08915391739856045</v>
+        <v>0.09825405364012745</v>
       </c>
       <c r="T3">
-        <v>0.08915391739856045</v>
+        <v>0.09825405364012742</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H4">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I4">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J4">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.370985666666666</v>
+        <v>21.65107466666666</v>
       </c>
       <c r="N4">
-        <v>28.112957</v>
+        <v>64.95322399999999</v>
       </c>
       <c r="O4">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="P4">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="Q4">
-        <v>18.65610499166966</v>
+        <v>56.92569113096443</v>
       </c>
       <c r="R4">
-        <v>167.904944925027</v>
+        <v>512.3312201786799</v>
       </c>
       <c r="S4">
-        <v>0.01401153329906646</v>
+        <v>0.03567712858774143</v>
       </c>
       <c r="T4">
-        <v>0.01401153329906646</v>
+        <v>0.03567712858774142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H5">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I5">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J5">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.226786</v>
+        <v>0.4370123333333333</v>
       </c>
       <c r="N5">
-        <v>0.680358</v>
+        <v>1.311037</v>
       </c>
       <c r="O5">
-        <v>0.003019928041555994</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="P5">
-        <v>0.003019928041555993</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="Q5">
-        <v>0.451493959882</v>
+        <v>1.149006665523889</v>
       </c>
       <c r="R5">
-        <v>4.063445638938</v>
+        <v>10.341059989715</v>
       </c>
       <c r="S5">
-        <v>0.0003390912870633373</v>
+        <v>0.0007201187678118451</v>
       </c>
       <c r="T5">
-        <v>0.0003390912870633373</v>
+        <v>0.000720118767811845</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>34.28296</v>
       </c>
       <c r="I6">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J6">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.872120333333334</v>
+        <v>4.114675333333333</v>
       </c>
       <c r="N6">
-        <v>17.616361</v>
+        <v>12.344026</v>
       </c>
       <c r="O6">
-        <v>0.07819433676692769</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="P6">
-        <v>0.07819433676692768</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="Q6">
-        <v>67.10455550095112</v>
+        <v>47.02108328855111</v>
       </c>
       <c r="R6">
-        <v>603.9409995085601</v>
+        <v>423.18974959696</v>
       </c>
       <c r="S6">
-        <v>0.05039839314478908</v>
+        <v>0.02946959802316793</v>
       </c>
       <c r="T6">
-        <v>0.05039839314478908</v>
+        <v>0.02946959802316793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>34.28296</v>
       </c>
       <c r="I7">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J7">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.62659933333334</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N7">
         <v>178.879798</v>
       </c>
       <c r="O7">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="P7">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="Q7">
-        <v>681.3921066268979</v>
+        <v>681.3921066268978</v>
       </c>
       <c r="R7">
-        <v>6132.528959642082</v>
+        <v>6132.528959642081</v>
       </c>
       <c r="S7">
-        <v>0.511754634527781</v>
+        <v>0.4270499544901702</v>
       </c>
       <c r="T7">
-        <v>0.511754634527781</v>
+        <v>0.4270499544901702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>34.28296</v>
       </c>
       <c r="I8">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J8">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.370985666666666</v>
+        <v>21.65107466666666</v>
       </c>
       <c r="N8">
-        <v>28.112957</v>
+        <v>64.95322399999999</v>
       </c>
       <c r="O8">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="P8">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="Q8">
-        <v>107.0883755903022</v>
+        <v>247.4209755847822</v>
       </c>
       <c r="R8">
-        <v>963.79538031272</v>
+        <v>2226.78878026304</v>
       </c>
       <c r="S8">
-        <v>0.08042795327301422</v>
+        <v>0.1550665400079993</v>
       </c>
       <c r="T8">
-        <v>0.08042795327301422</v>
+        <v>0.1550665400079993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>34.28296</v>
       </c>
       <c r="I9">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J9">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.226786</v>
+        <v>0.4370123333333333</v>
       </c>
       <c r="N9">
-        <v>0.680358</v>
+        <v>1.311037</v>
       </c>
       <c r="O9">
-        <v>0.003019928041555994</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="P9">
-        <v>0.003019928041555993</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="Q9">
-        <v>2.591631788853334</v>
+        <v>4.994025447724445</v>
       </c>
       <c r="R9">
-        <v>23.32468609968</v>
+        <v>44.94622902952</v>
       </c>
       <c r="S9">
-        <v>0.001946426390967034</v>
+        <v>0.003129913480699085</v>
       </c>
       <c r="T9">
-        <v>0.001946426390967034</v>
+        <v>0.003129913480699085</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H10">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I10">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J10">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.872120333333334</v>
+        <v>4.114675333333333</v>
       </c>
       <c r="N10">
-        <v>17.616361</v>
+        <v>12.344026</v>
       </c>
       <c r="O10">
-        <v>0.07819433676692769</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="P10">
-        <v>0.07819433676692768</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="Q10">
-        <v>23.98848846496978</v>
+        <v>17.47630169002</v>
       </c>
       <c r="R10">
-        <v>215.896396184728</v>
+        <v>157.28671521018</v>
       </c>
       <c r="S10">
-        <v>0.01801638150467518</v>
+        <v>0.0109529502452339</v>
       </c>
       <c r="T10">
-        <v>0.01801638150467518</v>
+        <v>0.0109529502452339</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H11">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I11">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J11">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.62659933333334</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N11">
         <v>178.879798</v>
       </c>
       <c r="O11">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="P11">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="Q11">
-        <v>243.5835625155004</v>
+        <v>253.25265161446</v>
       </c>
       <c r="R11">
-        <v>2192.252062639504</v>
+        <v>2279.27386453014</v>
       </c>
       <c r="S11">
-        <v>0.182941680421242</v>
+        <v>0.1587214355649843</v>
       </c>
       <c r="T11">
-        <v>0.1829416804212421</v>
+        <v>0.1587214355649843</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H12">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I12">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J12">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.370985666666666</v>
+        <v>21.65107466666666</v>
       </c>
       <c r="N12">
-        <v>28.112957</v>
+        <v>64.95322399999999</v>
       </c>
       <c r="O12">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="P12">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="Q12">
-        <v>38.28187584885955</v>
+        <v>91.95882594247998</v>
       </c>
       <c r="R12">
-        <v>344.5368826397359</v>
+        <v>827.6294334823199</v>
       </c>
       <c r="S12">
-        <v>0.02875132716322789</v>
+        <v>0.05763350066984082</v>
       </c>
       <c r="T12">
-        <v>0.0287513271632279</v>
+        <v>0.05763350066984082</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H13">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I13">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J13">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.226786</v>
+        <v>0.4370123333333333</v>
       </c>
       <c r="N13">
-        <v>0.680358</v>
+        <v>1.311037</v>
       </c>
       <c r="O13">
-        <v>0.003019928041555994</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="P13">
-        <v>0.003019928041555993</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="Q13">
-        <v>0.9264546767093332</v>
+        <v>1.85612685349</v>
       </c>
       <c r="R13">
-        <v>8.338092090384</v>
+        <v>16.70514168141</v>
       </c>
       <c r="S13">
-        <v>0.0006958071129308599</v>
+        <v>0.001163293323479772</v>
       </c>
       <c r="T13">
-        <v>0.0006958071129308599</v>
+        <v>0.001163293323479772</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H14">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I14">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J14">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.872120333333334</v>
+        <v>4.114675333333333</v>
       </c>
       <c r="N14">
-        <v>17.616361</v>
+        <v>12.344026</v>
       </c>
       <c r="O14">
-        <v>0.07819433676692769</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="P14">
-        <v>0.07819433676692768</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="Q14">
-        <v>1.330876926081111</v>
+        <v>1.176548893254889</v>
       </c>
       <c r="R14">
-        <v>11.97789233473</v>
+        <v>10.588940039294</v>
       </c>
       <c r="S14">
-        <v>0.0009995455308099545</v>
+        <v>0.0007373803518318106</v>
       </c>
       <c r="T14">
-        <v>0.0009995455308099543</v>
+        <v>0.0007373803518318106</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H15">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I15">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J15">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.62659933333334</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N15">
         <v>178.879798</v>
       </c>
       <c r="O15">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="P15">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="Q15">
-        <v>13.51397122823778</v>
+        <v>17.04960993784022</v>
       </c>
       <c r="R15">
-        <v>121.62574105414</v>
+        <v>153.446489440562</v>
       </c>
       <c r="S15">
-        <v>0.01014957076794052</v>
+        <v>0.01068552904739857</v>
       </c>
       <c r="T15">
-        <v>0.01014957076794052</v>
+        <v>0.01068552904739857</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H16">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I16">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J16">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.370985666666666</v>
+        <v>21.65107466666666</v>
       </c>
       <c r="N16">
-        <v>28.112957</v>
+        <v>64.95322399999999</v>
       </c>
       <c r="O16">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="P16">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="Q16">
-        <v>2.123871428112222</v>
+        <v>6.190901073161777</v>
       </c>
       <c r="R16">
-        <v>19.11484285301</v>
+        <v>55.718109658456</v>
       </c>
       <c r="S16">
-        <v>0.001595118340683551</v>
+        <v>0.003880033237594477</v>
       </c>
       <c r="T16">
-        <v>0.001595118340683551</v>
+        <v>0.003880033237594477</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H17">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I17">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J17">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.226786</v>
+        <v>0.4370123333333333</v>
       </c>
       <c r="N17">
-        <v>0.680358</v>
+        <v>1.311037</v>
       </c>
       <c r="O17">
-        <v>0.003019928041555994</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="P17">
-        <v>0.003019928041555993</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="Q17">
-        <v>0.05139953499333333</v>
+        <v>0.1249591609225556</v>
       </c>
       <c r="R17">
-        <v>0.46259581494</v>
+        <v>1.124632448303</v>
       </c>
       <c r="S17">
-        <v>3.860325059476239E-05</v>
+        <v>7.831585289309351E-05</v>
       </c>
       <c r="T17">
-        <v>3.860325059476239E-05</v>
+        <v>7.831585289309351E-05</v>
       </c>
     </row>
   </sheetData>
